--- a/masterProject/outputs_testmatrix.xlsx
+++ b/masterProject/outputs_testmatrix.xlsx
@@ -5,1244 +5,1261 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test matrix" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Test_matrix" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Univariate" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="413">
   <si>
-    <t>index</t>
+    <t xml:space="preserve">index</t>
   </si>
   <si>
-    <t>m_fuel_c</t>
+    <t xml:space="preserve">m_fuel_c</t>
   </si>
   <si>
-    <t>qh2o_c</t>
+    <t xml:space="preserve">qh2o_c</t>
   </si>
   <si>
-    <t>q_fuel_c</t>
+    <t xml:space="preserve">q_fuel_c</t>
   </si>
   <si>
-    <t>q_fm_c</t>
+    <t xml:space="preserve">q_fm_c</t>
   </si>
   <si>
-    <t>Q_c</t>
+    <t xml:space="preserve">Q_c</t>
   </si>
   <si>
-    <t>Qcomb</t>
+    <t xml:space="preserve">Qcomb</t>
   </si>
   <si>
-    <t>Qcorr</t>
+    <t xml:space="preserve">Qcorr</t>
   </si>
   <si>
-    <t>Xflue</t>
+    <t xml:space="preserve">Xflue</t>
   </si>
   <si>
-    <t>m_fuel_g</t>
+    <t xml:space="preserve">m_fuel_g</t>
   </si>
   <si>
-    <t>q_h2o_g</t>
+    <t xml:space="preserve">q_h2o_g</t>
   </si>
   <si>
-    <t>q_fuel_g</t>
+    <t xml:space="preserve">q_fuel_g</t>
   </si>
   <si>
-    <t>q_steam_g</t>
+    <t xml:space="preserve">q_steam_g</t>
   </si>
   <si>
-    <t>q_charconv</t>
+    <t xml:space="preserve">q_charconv</t>
   </si>
   <si>
-    <t>Q_g</t>
+    <t xml:space="preserve">Q_g</t>
   </si>
   <si>
-    <t>load_kg</t>
+    <t xml:space="preserve">load_kg</t>
   </si>
   <si>
-    <t>load_MW</t>
+    <t xml:space="preserve">load_MW</t>
   </si>
   <si>
-    <t>SB</t>
+    <t xml:space="preserve">SB</t>
   </si>
   <si>
-    <t>SFR</t>
+    <t xml:space="preserve">SFR</t>
   </si>
   <si>
-    <t>X_ch</t>
+    <t xml:space="preserve">X_ch</t>
   </si>
   <si>
-    <t>X_steam</t>
+    <t xml:space="preserve">X_steam</t>
   </si>
   <si>
-    <t>S_c</t>
+    <t xml:space="preserve">S_c</t>
   </si>
   <si>
-    <t>sink_c</t>
+    <t xml:space="preserve">sink_c</t>
   </si>
   <si>
-    <t>S_g</t>
+    <t xml:space="preserve">S_g</t>
   </si>
   <si>
-    <t>sink_g</t>
+    <t xml:space="preserve">sink_g</t>
   </si>
   <si>
-    <t>S_tot</t>
+    <t xml:space="preserve">S_tot</t>
   </si>
   <si>
-    <t>T_G_avg</t>
+    <t xml:space="preserve">T_G_avg</t>
   </si>
   <si>
-    <t>T_C_avg</t>
+    <t xml:space="preserve">T_C_avg</t>
   </si>
   <si>
-    <t>T_G_max</t>
+    <t xml:space="preserve">T_G_max</t>
   </si>
   <si>
-    <t>T_G_min</t>
+    <t xml:space="preserve">T_G_min</t>
   </si>
   <si>
-    <t>T_C_max</t>
+    <t xml:space="preserve">T_C_max</t>
   </si>
   <si>
-    <t>T_C_min</t>
+    <t xml:space="preserve">T_C_min</t>
   </si>
   <si>
-    <t>velo_G</t>
+    <t xml:space="preserve">velo_G</t>
   </si>
   <si>
-    <t>velo_C</t>
+    <t xml:space="preserve">velo_C</t>
   </si>
   <si>
-    <t>heat out c</t>
+    <t xml:space="preserve">heat out c</t>
   </si>
   <si>
-    <t>heat out g</t>
+    <t xml:space="preserve">heat out g</t>
   </si>
   <si>
-    <t>heat in c</t>
+    <t xml:space="preserve">heat in c</t>
   </si>
   <si>
-    <t>heat in g</t>
+    <t xml:space="preserve">heat in g</t>
   </si>
   <si>
-    <t>Total Heat source</t>
+    <t xml:space="preserve">Total Heat source</t>
   </si>
   <si>
-    <t>Net heat source</t>
+    <t xml:space="preserve">Net heat source</t>
   </si>
   <si>
-    <t>V_C</t>
+    <t xml:space="preserve">V_C</t>
   </si>
   <si>
-    <t>V_G</t>
+    <t xml:space="preserve">V_G</t>
   </si>
   <si>
-    <t>T_air</t>
+    <t xml:space="preserve">T_air</t>
   </si>
   <si>
-    <t>T_steam</t>
+    <t xml:space="preserve">T_steam</t>
   </si>
   <si>
-    <t>height</t>
+    <t xml:space="preserve">height</t>
   </si>
   <si>
-    <t>K_eff</t>
+    <t xml:space="preserve">K_eff</t>
   </si>
   <si>
-    <t>convergence</t>
+    <t xml:space="preserve">convergence</t>
   </si>
   <si>
-    <t>V_C_rzone</t>
+    <t xml:space="preserve">V_C_rzone</t>
   </si>
   <si>
-    <t>V_G_rzone</t>
+    <t xml:space="preserve">V_G_rzone</t>
   </si>
   <si>
-    <t>Mass Flow air</t>
+    <t xml:space="preserve">m_air</t>
   </si>
   <si>
-    <t>Mass Flow steam</t>
+    <t xml:space="preserve">m_steam</t>
   </si>
   <si>
-    <t>Mass Flow flue</t>
+    <t xml:space="preserve">m_flue</t>
   </si>
   <si>
-    <t>Mass Flow gas</t>
+    <t xml:space="preserve">m_gas</t>
   </si>
   <si>
-    <t>Total mass</t>
+    <t xml:space="preserve">Total mass</t>
   </si>
   <si>
-    <t>A_C</t>
+    <t xml:space="preserve">A_C</t>
   </si>
   <si>
-    <t>A_G</t>
+    <t xml:space="preserve">A_G</t>
   </si>
   <si>
-    <t>Solver Iteration Elapsed Time</t>
+    <t xml:space="preserve">Solver Iteration Elapsed Time</t>
   </si>
   <si>
-    <t>sink_gr</t>
+    <t xml:space="preserve">sink_gr</t>
   </si>
   <si>
-    <t>Total Solver Elapsed Time</t>
+    <t xml:space="preserve">Total Solver Elapsed Time</t>
   </si>
   <si>
-    <t>Hgap</t>
+    <t xml:space="preserve">Hgap</t>
   </si>
   <si>
-    <t>W </t>
+    <t xml:space="preserve">W </t>
   </si>
   <si>
-    <t>L</t>
+    <t xml:space="preserve">L</t>
   </si>
   <si>
-    <t>Tsteam</t>
+    <t xml:space="preserve">Tsteam</t>
   </si>
   <si>
-    <t>xH2O</t>
+    <t xml:space="preserve">xH2O</t>
   </si>
   <si>
-    <t>xfrombed</t>
+    <t xml:space="preserve">xfrombed</t>
   </si>
   <si>
-    <t>D</t>
+    <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t>P_gas</t>
+    <t xml:space="preserve">P_gas</t>
   </si>
   <si>
-    <t>Units</t>
+    <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t>Hgap-W-L-Tsteam-xH2O-Xbed-D-P_gas </t>
+    <t xml:space="preserve">Hgap-W-L-Tsteam-xH2O-Xbed-D-P_gas </t>
   </si>
   <si>
-    <t>kg/s</t>
+    <t xml:space="preserve">kg/s</t>
   </si>
   <si>
-    <t>MW</t>
+    <t xml:space="preserve">MW</t>
   </si>
   <si>
-    <t>-</t>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t> C</t>
+    <t xml:space="preserve"> C</t>
   </si>
   <si>
-    <t> m/s</t>
+    <t xml:space="preserve"> m/s</t>
   </si>
   <si>
-    <t> W</t>
+    <t xml:space="preserve"> W</t>
   </si>
   <si>
-    <t> m^3</t>
+    <t xml:space="preserve"> m^3</t>
   </si>
   <si>
-    <t> m</t>
+    <t xml:space="preserve"> m</t>
   </si>
   <si>
-    <t> W/m-K</t>
+    <t xml:space="preserve"> W/m-K</t>
   </si>
   <si>
-    <t> </t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t> kg/s</t>
+    <t xml:space="preserve"> kg/s</t>
   </si>
   <si>
-    <t> kg</t>
+    <t xml:space="preserve"> kg</t>
   </si>
   <si>
-    <t> m^2</t>
+    <t xml:space="preserve"> m^2</t>
   </si>
   <si>
-    <t> s</t>
+    <t xml:space="preserve"> s</t>
   </si>
   <si>
-    <t>W/m3?</t>
+    <t xml:space="preserve">W/m3?</t>
   </si>
   <si>
-    <t> hr</t>
+    <t xml:space="preserve"> hr</t>
   </si>
   <si>
-    <t>m</t>
+    <t xml:space="preserve">m</t>
   </si>
   <si>
-    <t>C</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t>m2/s</t>
+    <t xml:space="preserve">m2/s</t>
   </si>
   <si>
-    <t>00000000</t>
+    <t xml:space="preserve">00000000</t>
   </si>
   <si>
-    <t>00000001</t>
+    <t xml:space="preserve">00000001</t>
   </si>
   <si>
-    <t>00000010</t>
+    <t xml:space="preserve">00000010</t>
   </si>
   <si>
-    <t>00000011</t>
+    <t xml:space="preserve">00000011</t>
   </si>
   <si>
-    <t>00000100</t>
+    <t xml:space="preserve">00000100</t>
   </si>
   <si>
-    <t>00000101</t>
+    <t xml:space="preserve">00000101</t>
   </si>
   <si>
-    <t>00000110</t>
+    <t xml:space="preserve">00000110</t>
   </si>
   <si>
-    <t>00000111</t>
+    <t xml:space="preserve">00000111</t>
   </si>
   <si>
-    <t>00001000</t>
+    <t xml:space="preserve">00001000</t>
   </si>
   <si>
-    <t>00001001</t>
+    <t xml:space="preserve">00001001</t>
   </si>
   <si>
-    <t>00001010</t>
+    <t xml:space="preserve">00001010</t>
   </si>
   <si>
-    <t>00001011</t>
+    <t xml:space="preserve">00001011</t>
   </si>
   <si>
-    <t>00001100</t>
+    <t xml:space="preserve">00001100</t>
   </si>
   <si>
-    <t>00001101</t>
+    <t xml:space="preserve">00001101</t>
   </si>
   <si>
-    <t>00001110</t>
+    <t xml:space="preserve">00001110</t>
   </si>
   <si>
-    <t>00001111</t>
+    <t xml:space="preserve">00001111</t>
   </si>
   <si>
-    <t>00010000</t>
+    <t xml:space="preserve">00010000</t>
   </si>
   <si>
-    <t>00010001</t>
+    <t xml:space="preserve">00010001</t>
   </si>
   <si>
-    <t>00010010</t>
+    <t xml:space="preserve">00010010</t>
   </si>
   <si>
-    <t>00010011</t>
+    <t xml:space="preserve">00010011</t>
   </si>
   <si>
-    <t>00010100</t>
+    <t xml:space="preserve">00010100</t>
   </si>
   <si>
-    <t>00010101</t>
+    <t xml:space="preserve">00010101</t>
   </si>
   <si>
-    <t>00010110</t>
+    <t xml:space="preserve">00010110</t>
   </si>
   <si>
-    <t>00010111</t>
+    <t xml:space="preserve">00010111</t>
   </si>
   <si>
-    <t>00011000</t>
+    <t xml:space="preserve">00011000</t>
   </si>
   <si>
-    <t>00011001</t>
+    <t xml:space="preserve">00011001</t>
   </si>
   <si>
-    <t>00011010</t>
+    <t xml:space="preserve">00011010</t>
   </si>
   <si>
-    <t>00011011</t>
+    <t xml:space="preserve">00011011</t>
   </si>
   <si>
-    <t>00011100</t>
+    <t xml:space="preserve">00011100</t>
   </si>
   <si>
-    <t>00011101</t>
+    <t xml:space="preserve">00011101</t>
   </si>
   <si>
-    <t>00011110</t>
+    <t xml:space="preserve">00011110</t>
   </si>
   <si>
-    <t>00011111</t>
+    <t xml:space="preserve">00011111</t>
   </si>
   <si>
-    <t>00100000</t>
+    <t xml:space="preserve">00100000</t>
   </si>
   <si>
-    <t>00100001</t>
+    <t xml:space="preserve">00100001</t>
   </si>
   <si>
-    <t>00100010</t>
+    <t xml:space="preserve">00100010</t>
   </si>
   <si>
-    <t>00100011</t>
+    <t xml:space="preserve">00100011</t>
   </si>
   <si>
-    <t>00100100</t>
+    <t xml:space="preserve">00100100</t>
   </si>
   <si>
-    <t>00100101</t>
+    <t xml:space="preserve">00100101</t>
   </si>
   <si>
-    <t>00100110</t>
+    <t xml:space="preserve">00100110</t>
   </si>
   <si>
-    <t>00100111</t>
+    <t xml:space="preserve">00100111</t>
   </si>
   <si>
-    <t>00101000</t>
+    <t xml:space="preserve">00101000</t>
   </si>
   <si>
-    <t>00101001</t>
+    <t xml:space="preserve">00101001</t>
   </si>
   <si>
-    <t>00101010</t>
+    <t xml:space="preserve">00101010</t>
   </si>
   <si>
-    <t>00101011</t>
+    <t xml:space="preserve">00101011</t>
   </si>
   <si>
-    <t>00101100</t>
+    <t xml:space="preserve">00101100</t>
   </si>
   <si>
-    <t>00101101</t>
+    <t xml:space="preserve">00101101</t>
   </si>
   <si>
-    <t>00101110</t>
+    <t xml:space="preserve">00101110</t>
   </si>
   <si>
-    <t>00101111</t>
+    <t xml:space="preserve">00101111</t>
   </si>
   <si>
-    <t>00110000</t>
+    <t xml:space="preserve">00110000</t>
   </si>
   <si>
-    <t>00110001</t>
+    <t xml:space="preserve">00110001</t>
   </si>
   <si>
-    <t>00110010</t>
+    <t xml:space="preserve">00110010</t>
   </si>
   <si>
-    <t>00110011</t>
+    <t xml:space="preserve">00110011</t>
   </si>
   <si>
-    <t>00110100</t>
+    <t xml:space="preserve">00110100</t>
   </si>
   <si>
-    <t>00110101</t>
+    <t xml:space="preserve">00110101</t>
   </si>
   <si>
-    <t>00110110</t>
+    <t xml:space="preserve">00110110</t>
   </si>
   <si>
-    <t>00110111</t>
+    <t xml:space="preserve">00110111</t>
   </si>
   <si>
-    <t>00111000</t>
+    <t xml:space="preserve">00111000</t>
   </si>
   <si>
-    <t>00111001</t>
+    <t xml:space="preserve">00111001</t>
   </si>
   <si>
-    <t>00111010</t>
+    <t xml:space="preserve">00111010</t>
   </si>
   <si>
-    <t>00111011</t>
+    <t xml:space="preserve">00111011</t>
   </si>
   <si>
-    <t>00111100</t>
+    <t xml:space="preserve">00111100</t>
   </si>
   <si>
-    <t>00111101</t>
+    <t xml:space="preserve">00111101</t>
   </si>
   <si>
-    <t>00111110</t>
+    <t xml:space="preserve">00111110</t>
   </si>
   <si>
-    <t>00111111</t>
+    <t xml:space="preserve">00111111</t>
   </si>
   <si>
-    <t>01000000</t>
+    <t xml:space="preserve">01000000</t>
   </si>
   <si>
-    <t>01000001</t>
+    <t xml:space="preserve">01000001</t>
   </si>
   <si>
-    <t>01000010</t>
+    <t xml:space="preserve">01000010</t>
   </si>
   <si>
-    <t>01000011</t>
+    <t xml:space="preserve">01000011</t>
   </si>
   <si>
-    <t>01000100</t>
+    <t xml:space="preserve">01000100</t>
   </si>
   <si>
-    <t>01000101</t>
+    <t xml:space="preserve">01000101</t>
   </si>
   <si>
-    <t>01000110</t>
+    <t xml:space="preserve">01000110</t>
   </si>
   <si>
-    <t>01000111</t>
+    <t xml:space="preserve">01000111</t>
   </si>
   <si>
-    <t>01001000</t>
+    <t xml:space="preserve">01001000</t>
   </si>
   <si>
-    <t>01001001</t>
+    <t xml:space="preserve">01001001</t>
   </si>
   <si>
-    <t>01001010</t>
+    <t xml:space="preserve">01001010</t>
   </si>
   <si>
-    <t>01001011</t>
+    <t xml:space="preserve">01001011</t>
   </si>
   <si>
-    <t>01001100</t>
+    <t xml:space="preserve">01001100</t>
   </si>
   <si>
-    <t>01001101</t>
+    <t xml:space="preserve">01001101</t>
   </si>
   <si>
-    <t>01001110</t>
+    <t xml:space="preserve">01001110</t>
   </si>
   <si>
-    <t>01001111</t>
+    <t xml:space="preserve">01001111</t>
   </si>
   <si>
-    <t>01010000</t>
+    <t xml:space="preserve">01010000</t>
   </si>
   <si>
-    <t>01010001</t>
+    <t xml:space="preserve">01010001</t>
   </si>
   <si>
-    <t>01010010</t>
+    <t xml:space="preserve">01010010</t>
   </si>
   <si>
-    <t>01010011</t>
+    <t xml:space="preserve">01010011</t>
   </si>
   <si>
-    <t>01010100</t>
+    <t xml:space="preserve">01010100</t>
   </si>
   <si>
-    <t>01010101</t>
+    <t xml:space="preserve">01010101</t>
   </si>
   <si>
-    <t>01010110</t>
+    <t xml:space="preserve">01010110</t>
   </si>
   <si>
-    <t>01010111</t>
+    <t xml:space="preserve">01010111</t>
   </si>
   <si>
-    <t>01011000</t>
+    <t xml:space="preserve">01011000</t>
   </si>
   <si>
-    <t>01011001</t>
+    <t xml:space="preserve">01011001</t>
   </si>
   <si>
-    <t>01011010</t>
+    <t xml:space="preserve">01011010</t>
   </si>
   <si>
-    <t>01011011</t>
+    <t xml:space="preserve">01011011</t>
   </si>
   <si>
-    <t>01011100</t>
+    <t xml:space="preserve">01011100</t>
   </si>
   <si>
-    <t>01011101</t>
+    <t xml:space="preserve">01011101</t>
   </si>
   <si>
-    <t>01011110</t>
+    <t xml:space="preserve">01011110</t>
   </si>
   <si>
-    <t>01011111</t>
+    <t xml:space="preserve">01011111</t>
   </si>
   <si>
-    <t>01100000</t>
+    <t xml:space="preserve">01100000</t>
   </si>
   <si>
-    <t>01100001</t>
+    <t xml:space="preserve">01100001</t>
   </si>
   <si>
-    <t>01100010</t>
+    <t xml:space="preserve">01100010</t>
   </si>
   <si>
-    <t>01100011</t>
+    <t xml:space="preserve">01100011</t>
   </si>
   <si>
-    <t>01100100</t>
+    <t xml:space="preserve">01100100</t>
   </si>
   <si>
-    <t>01100101</t>
+    <t xml:space="preserve">01100101</t>
   </si>
   <si>
-    <t>01100110</t>
+    <t xml:space="preserve">01100110</t>
   </si>
   <si>
-    <t>01100111</t>
+    <t xml:space="preserve">01100111</t>
   </si>
   <si>
-    <t>01101000</t>
+    <t xml:space="preserve">01101000</t>
   </si>
   <si>
-    <t>01101001</t>
+    <t xml:space="preserve">01101001</t>
   </si>
   <si>
-    <t>01101010</t>
+    <t xml:space="preserve">01101010</t>
   </si>
   <si>
-    <t>01101011</t>
+    <t xml:space="preserve">01101011</t>
   </si>
   <si>
-    <t>01101100</t>
+    <t xml:space="preserve">01101100</t>
   </si>
   <si>
-    <t>01101101</t>
+    <t xml:space="preserve">01101101</t>
   </si>
   <si>
-    <t>01101110</t>
+    <t xml:space="preserve">01101110</t>
   </si>
   <si>
-    <t>01101111</t>
+    <t xml:space="preserve">01101111</t>
   </si>
   <si>
-    <t>01110000</t>
+    <t xml:space="preserve">01110000</t>
   </si>
   <si>
-    <t>01110001</t>
+    <t xml:space="preserve">01110001</t>
   </si>
   <si>
-    <t>01110010</t>
+    <t xml:space="preserve">01110010</t>
   </si>
   <si>
-    <t>01110011</t>
+    <t xml:space="preserve">01110011</t>
   </si>
   <si>
-    <t>01110100</t>
+    <t xml:space="preserve">01110100</t>
   </si>
   <si>
-    <t>01110101</t>
+    <t xml:space="preserve">01110101</t>
   </si>
   <si>
-    <t>01110110</t>
+    <t xml:space="preserve">01110110</t>
   </si>
   <si>
-    <t>01110111</t>
+    <t xml:space="preserve">01110111</t>
   </si>
   <si>
-    <t>01111000</t>
+    <t xml:space="preserve">01111000</t>
   </si>
   <si>
-    <t>01111001</t>
+    <t xml:space="preserve">01111001</t>
   </si>
   <si>
-    <t>01111010</t>
+    <t xml:space="preserve">01111010</t>
   </si>
   <si>
-    <t>01111011</t>
+    <t xml:space="preserve">01111011</t>
   </si>
   <si>
-    <t>01111100</t>
+    <t xml:space="preserve">01111100</t>
   </si>
   <si>
-    <t>01111101</t>
+    <t xml:space="preserve">01111101</t>
   </si>
   <si>
-    <t>01111110</t>
+    <t xml:space="preserve">01111110</t>
   </si>
   <si>
-    <t>01111111</t>
+    <t xml:space="preserve">01111111</t>
   </si>
   <si>
-    <t>10000000</t>
+    <t xml:space="preserve">10000000</t>
   </si>
   <si>
-    <t>10000001</t>
+    <t xml:space="preserve">10000001</t>
   </si>
   <si>
-    <t>10000010</t>
+    <t xml:space="preserve">10000010</t>
   </si>
   <si>
-    <t>10000011</t>
+    <t xml:space="preserve">10000011</t>
   </si>
   <si>
-    <t>10000100</t>
+    <t xml:space="preserve">10000100</t>
   </si>
   <si>
-    <t>10000101</t>
+    <t xml:space="preserve">10000101</t>
   </si>
   <si>
-    <t>10000110</t>
+    <t xml:space="preserve">10000110</t>
   </si>
   <si>
-    <t>10000111</t>
+    <t xml:space="preserve">10000111</t>
   </si>
   <si>
-    <t>10001000</t>
+    <t xml:space="preserve">10001000</t>
   </si>
   <si>
-    <t>10001001</t>
+    <t xml:space="preserve">10001001</t>
   </si>
   <si>
-    <t>10001010</t>
+    <t xml:space="preserve">10001010</t>
   </si>
   <si>
-    <t>10001011</t>
+    <t xml:space="preserve">10001011</t>
   </si>
   <si>
-    <t>10001100</t>
+    <t xml:space="preserve">10001100</t>
   </si>
   <si>
-    <t>10001101</t>
+    <t xml:space="preserve">10001101</t>
   </si>
   <si>
-    <t>10001110</t>
+    <t xml:space="preserve">10001110</t>
   </si>
   <si>
-    <t>10001111</t>
+    <t xml:space="preserve">10001111</t>
   </si>
   <si>
-    <t>10010000</t>
+    <t xml:space="preserve">10010000</t>
   </si>
   <si>
-    <t>10010001</t>
+    <t xml:space="preserve">10010001</t>
   </si>
   <si>
-    <t>10010010</t>
+    <t xml:space="preserve">10010010</t>
   </si>
   <si>
-    <t>10010011</t>
+    <t xml:space="preserve">10010011</t>
   </si>
   <si>
-    <t>10010100</t>
+    <t xml:space="preserve">10010100</t>
   </si>
   <si>
-    <t>10010101</t>
+    <t xml:space="preserve">10010101</t>
   </si>
   <si>
-    <t>10010110</t>
+    <t xml:space="preserve">10010110</t>
   </si>
   <si>
-    <t>10010111</t>
+    <t xml:space="preserve">10010111</t>
   </si>
   <si>
-    <t>10011000</t>
+    <t xml:space="preserve">10011000</t>
   </si>
   <si>
-    <t>10011001</t>
+    <t xml:space="preserve">10011001</t>
   </si>
   <si>
-    <t>10011010</t>
+    <t xml:space="preserve">10011010</t>
   </si>
   <si>
-    <t>10011011</t>
+    <t xml:space="preserve">10011011</t>
   </si>
   <si>
-    <t>10011100</t>
+    <t xml:space="preserve">10011100</t>
   </si>
   <si>
-    <t>10011101</t>
+    <t xml:space="preserve">10011101</t>
   </si>
   <si>
-    <t>10011110</t>
+    <t xml:space="preserve">10011110</t>
   </si>
   <si>
-    <t>10011111</t>
+    <t xml:space="preserve">10011111</t>
   </si>
   <si>
-    <t>10100000</t>
+    <t xml:space="preserve">10100000</t>
   </si>
   <si>
-    <t>10100001</t>
+    <t xml:space="preserve">10100001</t>
   </si>
   <si>
-    <t>10100010</t>
+    <t xml:space="preserve">10100010</t>
   </si>
   <si>
-    <t>10100011</t>
+    <t xml:space="preserve">10100011</t>
   </si>
   <si>
-    <t>10100100</t>
+    <t xml:space="preserve">10100100</t>
   </si>
   <si>
-    <t>10100101</t>
+    <t xml:space="preserve">10100101</t>
   </si>
   <si>
-    <t>10100110</t>
+    <t xml:space="preserve">10100110</t>
   </si>
   <si>
-    <t>10100111</t>
+    <t xml:space="preserve">10100111</t>
   </si>
   <si>
-    <t>10101000</t>
+    <t xml:space="preserve">10101000</t>
   </si>
   <si>
-    <t>10101001</t>
+    <t xml:space="preserve">10101001</t>
   </si>
   <si>
-    <t>10101010</t>
+    <t xml:space="preserve">10101010</t>
   </si>
   <si>
-    <t>10101011</t>
+    <t xml:space="preserve">10101011</t>
   </si>
   <si>
-    <t>10101100</t>
+    <t xml:space="preserve">10101100</t>
   </si>
   <si>
-    <t>10101101</t>
+    <t xml:space="preserve">10101101</t>
   </si>
   <si>
-    <t>10101110</t>
+    <t xml:space="preserve">10101110</t>
   </si>
   <si>
-    <t>10101111</t>
+    <t xml:space="preserve">10101111</t>
   </si>
   <si>
-    <t>10110000</t>
+    <t xml:space="preserve">10110000</t>
   </si>
   <si>
-    <t>10110001</t>
+    <t xml:space="preserve">10110001</t>
   </si>
   <si>
-    <t>10110010</t>
+    <t xml:space="preserve">10110010</t>
   </si>
   <si>
-    <t>10110011</t>
+    <t xml:space="preserve">10110011</t>
   </si>
   <si>
-    <t>10110100</t>
+    <t xml:space="preserve">10110100</t>
   </si>
   <si>
-    <t>10110101</t>
+    <t xml:space="preserve">10110101</t>
   </si>
   <si>
-    <t>10110110</t>
+    <t xml:space="preserve">10110110</t>
   </si>
   <si>
-    <t>10110111</t>
+    <t xml:space="preserve">10110111</t>
   </si>
   <si>
-    <t>10111000</t>
+    <t xml:space="preserve">10111000</t>
   </si>
   <si>
-    <t>10111001</t>
+    <t xml:space="preserve">10111001</t>
   </si>
   <si>
-    <t>10111010</t>
+    <t xml:space="preserve">10111010</t>
   </si>
   <si>
-    <t>10111011</t>
+    <t xml:space="preserve">10111011</t>
   </si>
   <si>
-    <t>10111100</t>
+    <t xml:space="preserve">10111100</t>
   </si>
   <si>
-    <t>10111101</t>
+    <t xml:space="preserve">10111101</t>
   </si>
   <si>
-    <t>10111110</t>
+    <t xml:space="preserve">10111110</t>
   </si>
   <si>
-    <t>10111111</t>
+    <t xml:space="preserve">10111111</t>
   </si>
   <si>
-    <t>11000000</t>
+    <t xml:space="preserve">11000000</t>
   </si>
   <si>
-    <t>11000001</t>
+    <t xml:space="preserve">11000001</t>
   </si>
   <si>
-    <t>11000010</t>
+    <t xml:space="preserve">11000010</t>
   </si>
   <si>
-    <t>11000011</t>
+    <t xml:space="preserve">11000011</t>
   </si>
   <si>
-    <t>11000100</t>
+    <t xml:space="preserve">11000100</t>
   </si>
   <si>
-    <t>11000101</t>
+    <t xml:space="preserve">11000101</t>
   </si>
   <si>
-    <t>11000110</t>
+    <t xml:space="preserve">11000110</t>
   </si>
   <si>
-    <t>11000111</t>
+    <t xml:space="preserve">11000111</t>
   </si>
   <si>
-    <t>11001000</t>
+    <t xml:space="preserve">11001000</t>
   </si>
   <si>
-    <t>11001001</t>
+    <t xml:space="preserve">11001001</t>
   </si>
   <si>
-    <t>11001010</t>
+    <t xml:space="preserve">11001010</t>
   </si>
   <si>
-    <t>11001011</t>
+    <t xml:space="preserve">11001011</t>
   </si>
   <si>
-    <t>11001100</t>
+    <t xml:space="preserve">11001100</t>
   </si>
   <si>
-    <t>11001101</t>
+    <t xml:space="preserve">11001101</t>
   </si>
   <si>
-    <t>11001110</t>
+    <t xml:space="preserve">11001110</t>
   </si>
   <si>
-    <t>11001111</t>
+    <t xml:space="preserve">11001111</t>
   </si>
   <si>
-    <t>11010000</t>
+    <t xml:space="preserve">11010000</t>
   </si>
   <si>
-    <t>11010001</t>
+    <t xml:space="preserve">11010001</t>
   </si>
   <si>
-    <t>11010010</t>
+    <t xml:space="preserve">11010010</t>
   </si>
   <si>
-    <t>11010011</t>
+    <t xml:space="preserve">11010011</t>
   </si>
   <si>
-    <t>11010100</t>
+    <t xml:space="preserve">11010100</t>
   </si>
   <si>
-    <t>11010101</t>
+    <t xml:space="preserve">11010101</t>
   </si>
   <si>
-    <t>11010110</t>
+    <t xml:space="preserve">11010110</t>
   </si>
   <si>
-    <t>11010111</t>
+    <t xml:space="preserve">11010111</t>
   </si>
   <si>
-    <t>11011000</t>
+    <t xml:space="preserve">11011000</t>
   </si>
   <si>
-    <t>11011001</t>
+    <t xml:space="preserve">11011001</t>
   </si>
   <si>
-    <t>11011010</t>
+    <t xml:space="preserve">11011010</t>
   </si>
   <si>
-    <t>11011011</t>
+    <t xml:space="preserve">11011011</t>
   </si>
   <si>
-    <t>11011100</t>
+    <t xml:space="preserve">11011100</t>
   </si>
   <si>
-    <t>11011101</t>
+    <t xml:space="preserve">11011101</t>
   </si>
   <si>
-    <t>11011110</t>
+    <t xml:space="preserve">11011110</t>
   </si>
   <si>
-    <t>11011111</t>
+    <t xml:space="preserve">11011111</t>
   </si>
   <si>
-    <t>11100000</t>
+    <t xml:space="preserve">11100000</t>
   </si>
   <si>
-    <t>11100001</t>
+    <t xml:space="preserve">11100001</t>
   </si>
   <si>
-    <t>11100010</t>
+    <t xml:space="preserve">11100010</t>
   </si>
   <si>
-    <t>11100011</t>
+    <t xml:space="preserve">11100011</t>
   </si>
   <si>
-    <t>11100100</t>
+    <t xml:space="preserve">11100100</t>
   </si>
   <si>
-    <t>11100101</t>
+    <t xml:space="preserve">11100101</t>
   </si>
   <si>
-    <t>11100110</t>
+    <t xml:space="preserve">11100110</t>
   </si>
   <si>
-    <t>11100111</t>
+    <t xml:space="preserve">11100111</t>
   </si>
   <si>
-    <t>11101000</t>
+    <t xml:space="preserve">11101000</t>
   </si>
   <si>
-    <t>11101001</t>
+    <t xml:space="preserve">11101001</t>
   </si>
   <si>
-    <t>11101010</t>
+    <t xml:space="preserve">11101010</t>
   </si>
   <si>
-    <t>11101011</t>
+    <t xml:space="preserve">11101011</t>
   </si>
   <si>
-    <t>11101100</t>
+    <t xml:space="preserve">11101100</t>
   </si>
   <si>
-    <t>11101101</t>
+    <t xml:space="preserve">11101101</t>
   </si>
   <si>
-    <t>11101110</t>
+    <t xml:space="preserve">11101110</t>
   </si>
   <si>
-    <t>11101111</t>
+    <t xml:space="preserve">11101111</t>
   </si>
   <si>
-    <t>11110000</t>
+    <t xml:space="preserve">11110000</t>
   </si>
   <si>
-    <t>11110001</t>
+    <t xml:space="preserve">11110001</t>
   </si>
   <si>
-    <t>11110010</t>
+    <t xml:space="preserve">11110010</t>
   </si>
   <si>
-    <t>11110011</t>
+    <t xml:space="preserve">11110011</t>
   </si>
   <si>
-    <t>11110100</t>
+    <t xml:space="preserve">11110100</t>
   </si>
   <si>
-    <t>11110101</t>
+    <t xml:space="preserve">11110101</t>
   </si>
   <si>
-    <t>11110110</t>
+    <t xml:space="preserve">11110110</t>
   </si>
   <si>
-    <t>11110111</t>
+    <t xml:space="preserve">11110111</t>
   </si>
   <si>
-    <t>11111000</t>
+    <t xml:space="preserve">11111000</t>
   </si>
   <si>
-    <t>11111001</t>
+    <t xml:space="preserve">11111001</t>
   </si>
   <si>
-    <t>11111010</t>
+    <t xml:space="preserve">11111010</t>
   </si>
   <si>
-    <t>11111011</t>
+    <t xml:space="preserve">11111011</t>
   </si>
   <si>
-    <t>11111100</t>
+    <t xml:space="preserve">11111100</t>
   </si>
   <si>
-    <t>11111101</t>
+    <t xml:space="preserve">11111101</t>
   </si>
   <si>
-    <t>11111110</t>
+    <t xml:space="preserve">11111110</t>
   </si>
   <si>
-    <t>11111111</t>
+    <t xml:space="preserve">11111111</t>
   </si>
   <si>
-    <t>comments</t>
+    <t xml:space="preserve">comments</t>
   </si>
   <si>
-    <t>case</t>
+    <t xml:space="preserve">case</t>
   </si>
   <si>
-    <t>Xbed</t>
+    <t xml:space="preserve">Mass Flow air</t>
   </si>
   <si>
-    <t>xH2O_G_wet</t>
+    <t xml:space="preserve">Mass Flow steam</t>
   </si>
   <si>
-    <t>L_chamber</t>
+    <t xml:space="preserve">Mass Flow flue</t>
   </si>
   <si>
-    <t>W_chamber</t>
+    <t xml:space="preserve">Mass Flow gas</t>
   </si>
   <si>
-    <t>H_gap</t>
+    <t xml:space="preserve">Xbed</t>
   </si>
   <si>
-    <t>P_fuel</t>
+    <t xml:space="preserve">xH2O_G_wet</t>
   </si>
   <si>
-    <t>TC</t>
+    <t xml:space="preserve">L_chamber</t>
   </si>
   <si>
-    <t>wall_thickness</t>
+    <t xml:space="preserve">W_chamber</t>
   </si>
   <si>
-    <t>u_air</t>
+    <t xml:space="preserve">H_gap</t>
   </si>
   <si>
-    <t>gas_H2</t>
+    <t xml:space="preserve">P_fuel</t>
   </si>
   <si>
-    <t>gas_CO</t>
+    <t xml:space="preserve">TC</t>
   </si>
   <si>
-    <t>gas_CO2</t>
+    <t xml:space="preserve">wall_thickness</t>
   </si>
   <si>
-    <t>gas_CH4</t>
+    <t xml:space="preserve">u_air</t>
   </si>
   <si>
-    <t>gas_C2H2</t>
+    <t xml:space="preserve">gas_H2</t>
   </si>
   <si>
-    <t>gas_C2H4</t>
+    <t xml:space="preserve">gas_CO</t>
   </si>
   <si>
-    <t>gas_C2H6</t>
+    <t xml:space="preserve">gas_CO2</t>
   </si>
   <si>
-    <t>gas_C3H6</t>
+    <t xml:space="preserve">gas_CH4</t>
   </si>
   <si>
-    <t>yield_gas</t>
+    <t xml:space="preserve">gas_C2H2</t>
   </si>
   <si>
-    <t>tar_conc</t>
+    <t xml:space="preserve">gas_C2H4</t>
   </si>
   <si>
-    <t>y_char</t>
+    <t xml:space="preserve">gas_C2H6</t>
   </si>
   <si>
-    <t>y_vol</t>
+    <t xml:space="preserve">gas_C3H6</t>
   </si>
   <si>
-    <t>y_ash</t>
+    <t xml:space="preserve">yield_gas</t>
   </si>
   <si>
-    <t>fuel_LHV</t>
+    <t xml:space="preserve">tar_conc</t>
   </si>
   <si>
-    <t>fuel_C</t>
+    <t xml:space="preserve">y_char</t>
   </si>
   <si>
-    <t>fuel_H</t>
+    <t xml:space="preserve">y_vol</t>
   </si>
   <si>
-    <t>fuel_O</t>
+    <t xml:space="preserve">y_ash</t>
   </si>
   <si>
-    <t>TG</t>
+    <t xml:space="preserve">fuel_LHV</t>
   </si>
   <si>
-    <t>Tair</t>
+    <t xml:space="preserve">fuel_C</t>
   </si>
   <si>
-    <t>Tfuel</t>
+    <t xml:space="preserve">fuel_H</t>
   </si>
   <si>
-    <t>T_whole</t>
+    <t xml:space="preserve">fuel_O</t>
   </si>
   <si>
-    <t>xH2O_C_wet</t>
+    <t xml:space="preserve">TG</t>
   </si>
   <si>
-    <t>ER</t>
+    <t xml:space="preserve">Tair</t>
   </si>
   <si>
-    <t>u_steam</t>
+    <t xml:space="preserve">Tfuel</t>
   </si>
   <si>
-    <t>H_bed</t>
+    <t xml:space="preserve">T_whole</t>
   </si>
   <si>
-    <t>porosity</t>
+    <t xml:space="preserve">xH2O_C_wet</t>
   </si>
   <si>
-    <t>rho_solid</t>
+    <t xml:space="preserve">ER</t>
   </si>
   <si>
-    <t>-- units</t>
+    <t xml:space="preserve">u_steam</t>
   </si>
   <si>
-    <t>--</t>
+    <t xml:space="preserve">H_bed</t>
   </si>
   <si>
-    <t>kg/kg wet</t>
+    <t xml:space="preserve">porosity</t>
   </si>
   <si>
-    <t>deg C</t>
+    <t xml:space="preserve">rho_solid</t>
   </si>
   <si>
-    <t>m/s</t>
+    <t xml:space="preserve">-- units</t>
   </si>
   <si>
-    <t>% vol</t>
+    <t xml:space="preserve">--</t>
   </si>
   <si>
-    <t>kg/kgdaf</t>
+    <t xml:space="preserve">kg/kg wet</t>
   </si>
   <si>
-    <t>g/Nm3 cg</t>
+    <t xml:space="preserve">deg C</t>
   </si>
   <si>
-    <t>kg/kg daf</t>
+    <t xml:space="preserve">m/s</t>
   </si>
   <si>
-    <t>MJ/kg daf</t>
+    <t xml:space="preserve">% vol</t>
   </si>
   <si>
-    <t>% mass</t>
+    <t xml:space="preserve">kg/kgdaf</t>
   </si>
   <si>
-    <t>void fraction</t>
+    <t xml:space="preserve">g/Nm3 cg</t>
   </si>
   <si>
-    <t>kg/m3</t>
+    <t xml:space="preserve">kg/kg daf</t>
   </si>
   <si>
-    <t>base case</t>
+    <t xml:space="preserve">MJ/kg daf</t>
   </si>
   <si>
-    <t>0</t>
+    <t xml:space="preserve">% mass</t>
   </si>
   <si>
-    <t>higher comb. Temp</t>
+    <t xml:space="preserve">void fraction</t>
   </si>
   <si>
-    <t>1</t>
+    <t xml:space="preserve">kg/m3</t>
   </si>
   <si>
-    <t>lower comb. Temp</t>
+    <t xml:space="preserve">base case</t>
   </si>
   <si>
-    <t>2</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t>Thick wall</t>
+    <t xml:space="preserve">higher comb. Temp</t>
   </si>
   <si>
-    <t>3</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t>low load boiler</t>
+    <t xml:space="preserve">lower comb. Temp</t>
   </si>
   <si>
-    <t>4</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t>low velocity</t>
+    <t xml:space="preserve">Thick wall</t>
   </si>
   <si>
-    <t>5</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t>higher gas yield</t>
+    <t xml:space="preserve">low load boiler</t>
   </si>
   <si>
-    <t>6</t>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">higher gas yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1267,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
@@ -1457,7 +1474,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1500,10 +1517,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1666,74 +1679,73 @@
   </sheetPr>
   <dimension ref="A1:BQ258"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BH2" activeCellId="0" sqref="BH2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH1" activeCellId="0" sqref="AH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.92857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.95408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.08163265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.99489795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.08163265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.45918367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.72448979591837"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.1071428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.95408163265306"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5969387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1938775510204"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="5.99489795918367"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.36734693877551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.9897959183673"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.81632653061225"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.28061224489796"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.87755102040816"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.5459183673469"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.69897959183674"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.19897959183673"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="5.69897959183674"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.19897959183673"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="6.87755102040816"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="34.3418367346939"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.8367346938776"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.8367346938776"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="11.4285714285714"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.78571428571429"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="14.8316326530612"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.2755102040816"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="14.2448979591837"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="18.6173469387755"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="17.1530612244898"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="6.13775510204082"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="6.28061224489796"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="6.72448979591837"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="7.60204081632653"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="13.8061224489796"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="14.3622448979592"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="12.75"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="12.8979591836735"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="19.0612244897959"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="16.4234693877551"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="16.5663265306122"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="12.3112244897959"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="6.13775510204082"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="6.28061224489796"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="30.0765306122449"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="8.92857142857143"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="26.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="62" style="0" width="11.7959183673469"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="8.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="34.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="14.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="18.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="6.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="7.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="14.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="30.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="8.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="26.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="62" style="0" width="11.8"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -55658,7 +55670,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -55673,13 +55685,13 @@
   </sheetPr>
   <dimension ref="A1:CS9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55764,220 +55776,220 @@
       <c r="AA1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AM1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AN1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AR1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AT1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AU1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AV1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AW1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AX1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AY1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="12" t="s">
+      <c r="AZ1" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="BA1" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="BB1" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="BC1" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="BD1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BE1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BF1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="13" t="s">
+      <c r="BG1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BH1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="BJ1" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BI1" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="BJ1" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="BK1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="BM1" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="BN1" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="BO1" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="BP1" s="15" t="s">
+      <c r="BL1" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="BQ1" s="16" t="s">
+      <c r="BM1" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="BR1" s="17" t="s">
+      <c r="BN1" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="BS1" s="18" t="s">
+      <c r="BO1" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="BT1" s="18" t="s">
+      <c r="BP1" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="BU1" s="18" t="s">
+      <c r="BQ1" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="BV1" s="18" t="s">
+      <c r="BR1" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="BW1" s="18" t="s">
+      <c r="BS1" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="BX1" s="18" t="s">
+      <c r="BT1" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="BY1" s="18" t="s">
+      <c r="BU1" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="BZ1" s="18" t="s">
+      <c r="BV1" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="CA1" s="18" t="s">
+      <c r="BW1" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="CB1" s="19" t="s">
+      <c r="BX1" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="CC1" s="20" t="s">
+      <c r="BY1" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="CD1" s="21" t="s">
+      <c r="BZ1" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="CE1" s="22" t="s">
+      <c r="CA1" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="CF1" s="21" t="s">
+      <c r="CB1" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="CG1" s="22" t="s">
+      <c r="CC1" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="CH1" s="22" t="s">
+      <c r="CD1" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="CI1" s="23" t="s">
+      <c r="CE1" s="21" t="s">
         <v>371</v>
       </c>
+      <c r="CF1" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="CG1" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="CH1" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="CI1" s="22" t="s">
+        <v>375</v>
+      </c>
       <c r="CJ1" s="0" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="CK1" s="0" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CL1" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="CM1" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="CN1" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="CO1" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="CP1" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="CQ1" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="CR1" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="CS1" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
@@ -56055,7 +56067,7 @@
       <c r="AA2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB2" s="11" t="s">
         <v>78</v>
       </c>
       <c r="AC2" s="0" t="s">
@@ -56148,127 +56160,127 @@
       <c r="BF2" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="BG2" s="13" t="s">
+      <c r="BG2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BH2" s="13" t="s">
+      <c r="BH2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="BI2" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="BJ2" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="BK2" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="BL2" s="13" t="s">
+      <c r="BI2" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="BJ2" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="BK2" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="BL2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="BM2" s="13" t="s">
+      <c r="BM2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="BN2" s="13" t="s">
+      <c r="BN2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="BO2" s="14" t="s">
+      <c r="BO2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="BP2" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="BQ2" s="16" t="s">
+      <c r="BP2" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="BQ2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="BR2" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BS2" s="18" t="s">
+      <c r="BR2" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="BS2" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="BT2" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="BU2" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="BV2" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="BW2" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="BX2" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="BY2" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="BZ2" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="CA2" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="CB2" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="CC2" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="CD2" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="CE2" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="CF2" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="CG2" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="CH2" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="CI2" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="CJ2" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="CK2" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="CL2" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="CM2" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="CN2" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="CO2" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="BT2" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="BU2" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="BV2" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="BW2" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="BX2" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="BY2" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="BZ2" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="CA2" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="CB2" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="CC2" s="24" t="s">
+      <c r="CP2" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="CD2" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="CE2" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="CF2" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="CG2" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="CH2" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="CI2" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="CJ2" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="CK2" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="CL2" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="CM2" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="CN2" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="CO2" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="CP2" s="0" t="s">
-        <v>386</v>
       </c>
       <c r="CQ2" s="0" t="s">
         <v>85</v>
       </c>
       <c r="CR2" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="CS2" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B3" s="11" t="n">
         <v>0</v>
@@ -56348,8 +56360,8 @@
       <c r="AA3" s="0" t="n">
         <v>12.7368325841296</v>
       </c>
-      <c r="AB3" s="12" t="s">
-        <v>396</v>
+      <c r="AB3" s="11" t="s">
+        <v>400</v>
       </c>
       <c r="AC3" s="0" t="n">
         <v>763.3680105653</v>
@@ -56441,91 +56453,91 @@
       <c r="BF3" s="0" t="n">
         <v>-3.1086144243</v>
       </c>
-      <c r="BG3" s="13" t="n">
+      <c r="BG3" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="BH3" s="13" t="n">
+      <c r="BH3" s="12" t="n">
         <v>0.02</v>
       </c>
-      <c r="BI3" s="13" t="n">
+      <c r="BI3" s="12" t="n">
         <v>0.7</v>
       </c>
-      <c r="BJ3" s="13" t="n">
+      <c r="BJ3" s="12" t="n">
         <v>0.3</v>
       </c>
-      <c r="BK3" s="13" t="n">
+      <c r="BK3" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="BL3" s="13" t="n">
+      <c r="BL3" s="12" t="n">
         <v>2.6</v>
       </c>
-      <c r="BM3" s="13" t="n">
+      <c r="BM3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="BN3" s="13" t="n">
+      <c r="BN3" s="12" t="n">
         <v>0.35</v>
       </c>
-      <c r="BO3" s="14" t="n">
+      <c r="BO3" s="13" t="n">
         <v>70</v>
       </c>
-      <c r="BP3" s="15" t="n">
+      <c r="BP3" s="14" t="n">
         <v>850</v>
       </c>
-      <c r="BQ3" s="16" t="n">
+      <c r="BQ3" s="15" t="n">
         <v>0.03</v>
       </c>
-      <c r="BR3" s="17" t="n">
+      <c r="BR3" s="16" t="n">
         <v>1.2</v>
       </c>
-      <c r="BS3" s="27" t="n">
+      <c r="BS3" s="26" t="n">
         <v>27.24382</v>
       </c>
-      <c r="BT3" s="27" t="n">
+      <c r="BT3" s="26" t="n">
         <v>29.08767</v>
       </c>
-      <c r="BU3" s="27" t="n">
+      <c r="BU3" s="26" t="n">
         <v>23.77501</v>
       </c>
-      <c r="BV3" s="27" t="n">
+      <c r="BV3" s="26" t="n">
         <v>13.2707</v>
       </c>
-      <c r="BW3" s="27" t="n">
+      <c r="BW3" s="26" t="n">
         <v>0.802764</v>
       </c>
-      <c r="BX3" s="27" t="n">
+      <c r="BX3" s="26" t="n">
         <v>4.778957</v>
       </c>
-      <c r="BY3" s="27" t="n">
+      <c r="BY3" s="26" t="n">
         <v>0.263407</v>
       </c>
-      <c r="BZ3" s="27" t="n">
+      <c r="BZ3" s="26" t="n">
         <v>0.760954</v>
       </c>
-      <c r="CA3" s="27" t="n">
+      <c r="CA3" s="26" t="n">
         <v>0.567263</v>
       </c>
       <c r="CB3" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="CC3" s="28" t="n">
+      <c r="CC3" s="27" t="n">
         <v>0.2622875</v>
       </c>
-      <c r="CD3" s="29" t="n">
+      <c r="CD3" s="28" t="n">
         <v>0.703075</v>
       </c>
-      <c r="CE3" s="30" t="n">
+      <c r="CE3" s="29" t="n">
         <v>0.0391125</v>
       </c>
-      <c r="CF3" s="29" t="n">
+      <c r="CF3" s="28" t="n">
         <v>20.50125</v>
       </c>
-      <c r="CG3" s="30" t="n">
+      <c r="CG3" s="29" t="n">
         <v>52.675</v>
       </c>
-      <c r="CH3" s="30" t="n">
+      <c r="CH3" s="29" t="n">
         <v>5.7375</v>
       </c>
-      <c r="CI3" s="31" t="n">
+      <c r="CI3" s="30" t="n">
         <v>37.625</v>
       </c>
       <c r="CJ3" s="0" t="n">
@@ -56561,7 +56573,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B4" s="11" t="n">
         <v>1</v>
@@ -56641,8 +56653,8 @@
       <c r="AA4" s="0" t="n">
         <v>12.8235226600766</v>
       </c>
-      <c r="AB4" s="12" t="s">
-        <v>398</v>
+      <c r="AB4" s="11" t="s">
+        <v>402</v>
       </c>
       <c r="AC4" s="0" t="n">
         <v>771.8211752373</v>
@@ -56734,91 +56746,91 @@
       <c r="BF4" s="0" t="n">
         <v>-3.1253989209</v>
       </c>
-      <c r="BG4" s="13" t="n">
+      <c r="BG4" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="BH4" s="13" t="n">
+      <c r="BH4" s="12" t="n">
         <v>0.02</v>
       </c>
-      <c r="BI4" s="13" t="n">
+      <c r="BI4" s="12" t="n">
         <v>0.7</v>
       </c>
-      <c r="BJ4" s="13" t="n">
+      <c r="BJ4" s="12" t="n">
         <v>0.3</v>
       </c>
-      <c r="BK4" s="13" t="n">
+      <c r="BK4" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="BL4" s="13" t="n">
+      <c r="BL4" s="12" t="n">
         <v>2.6</v>
       </c>
-      <c r="BM4" s="13" t="n">
+      <c r="BM4" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="BN4" s="13" t="n">
+      <c r="BN4" s="12" t="n">
         <v>0.35</v>
       </c>
-      <c r="BO4" s="14" t="n">
+      <c r="BO4" s="13" t="n">
         <v>70</v>
       </c>
-      <c r="BP4" s="15" t="n">
+      <c r="BP4" s="14" t="n">
         <v>860</v>
       </c>
-      <c r="BQ4" s="16" t="n">
+      <c r="BQ4" s="15" t="n">
         <v>0.03</v>
       </c>
-      <c r="BR4" s="17" t="n">
+      <c r="BR4" s="16" t="n">
         <v>1.2</v>
       </c>
-      <c r="BS4" s="27" t="n">
+      <c r="BS4" s="26" t="n">
         <v>27.24382</v>
       </c>
-      <c r="BT4" s="27" t="n">
+      <c r="BT4" s="26" t="n">
         <v>29.08767</v>
       </c>
-      <c r="BU4" s="27" t="n">
+      <c r="BU4" s="26" t="n">
         <v>23.77501</v>
       </c>
-      <c r="BV4" s="27" t="n">
+      <c r="BV4" s="26" t="n">
         <v>13.2707</v>
       </c>
-      <c r="BW4" s="27" t="n">
+      <c r="BW4" s="26" t="n">
         <v>0.802764</v>
       </c>
-      <c r="BX4" s="27" t="n">
+      <c r="BX4" s="26" t="n">
         <v>4.778957</v>
       </c>
-      <c r="BY4" s="27" t="n">
+      <c r="BY4" s="26" t="n">
         <v>0.263407</v>
       </c>
-      <c r="BZ4" s="27" t="n">
+      <c r="BZ4" s="26" t="n">
         <v>0.760954</v>
       </c>
-      <c r="CA4" s="27" t="n">
+      <c r="CA4" s="26" t="n">
         <v>0.567263</v>
       </c>
       <c r="CB4" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="CC4" s="28" t="n">
+      <c r="CC4" s="27" t="n">
         <v>0.2622875</v>
       </c>
-      <c r="CD4" s="29" t="n">
+      <c r="CD4" s="28" t="n">
         <v>0.703075</v>
       </c>
-      <c r="CE4" s="30" t="n">
+      <c r="CE4" s="29" t="n">
         <v>0.0391125</v>
       </c>
-      <c r="CF4" s="29" t="n">
+      <c r="CF4" s="28" t="n">
         <v>20.50125</v>
       </c>
-      <c r="CG4" s="30" t="n">
+      <c r="CG4" s="29" t="n">
         <v>52.675</v>
       </c>
-      <c r="CH4" s="30" t="n">
+      <c r="CH4" s="29" t="n">
         <v>5.7375</v>
       </c>
-      <c r="CI4" s="31" t="n">
+      <c r="CI4" s="30" t="n">
         <v>37.625</v>
       </c>
       <c r="CJ4" s="0" t="n">
@@ -56854,7 +56866,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B5" s="11" t="n">
         <v>2</v>
@@ -56934,8 +56946,8 @@
       <c r="AA5" s="0" t="n">
         <v>12.6487063865372</v>
       </c>
-      <c r="AB5" s="12" t="s">
-        <v>400</v>
+      <c r="AB5" s="11" t="s">
+        <v>404</v>
       </c>
       <c r="AC5" s="0" t="n">
         <v>754.9239842088</v>
@@ -57027,91 +57039,91 @@
       <c r="BF5" s="0" t="n">
         <v>-3.0918480725</v>
       </c>
-      <c r="BG5" s="13" t="n">
+      <c r="BG5" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="BH5" s="13" t="n">
+      <c r="BH5" s="12" t="n">
         <v>0.02</v>
       </c>
-      <c r="BI5" s="13" t="n">
+      <c r="BI5" s="12" t="n">
         <v>0.7</v>
       </c>
-      <c r="BJ5" s="13" t="n">
+      <c r="BJ5" s="12" t="n">
         <v>0.3</v>
       </c>
-      <c r="BK5" s="13" t="n">
+      <c r="BK5" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="BL5" s="13" t="n">
+      <c r="BL5" s="12" t="n">
         <v>2.6</v>
       </c>
-      <c r="BM5" s="13" t="n">
+      <c r="BM5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="BN5" s="13" t="n">
+      <c r="BN5" s="12" t="n">
         <v>0.35</v>
       </c>
-      <c r="BO5" s="14" t="n">
+      <c r="BO5" s="13" t="n">
         <v>70</v>
       </c>
-      <c r="BP5" s="15" t="n">
+      <c r="BP5" s="14" t="n">
         <v>840</v>
       </c>
-      <c r="BQ5" s="16" t="n">
+      <c r="BQ5" s="15" t="n">
         <v>0.03</v>
       </c>
-      <c r="BR5" s="17" t="n">
+      <c r="BR5" s="16" t="n">
         <v>1.2</v>
       </c>
-      <c r="BS5" s="27" t="n">
+      <c r="BS5" s="26" t="n">
         <v>27.24382</v>
       </c>
-      <c r="BT5" s="27" t="n">
+      <c r="BT5" s="26" t="n">
         <v>29.08767</v>
       </c>
-      <c r="BU5" s="27" t="n">
+      <c r="BU5" s="26" t="n">
         <v>23.77501</v>
       </c>
-      <c r="BV5" s="27" t="n">
+      <c r="BV5" s="26" t="n">
         <v>13.2707</v>
       </c>
-      <c r="BW5" s="27" t="n">
+      <c r="BW5" s="26" t="n">
         <v>0.802764</v>
       </c>
-      <c r="BX5" s="27" t="n">
+      <c r="BX5" s="26" t="n">
         <v>4.778957</v>
       </c>
-      <c r="BY5" s="27" t="n">
+      <c r="BY5" s="26" t="n">
         <v>0.263407</v>
       </c>
-      <c r="BZ5" s="27" t="n">
+      <c r="BZ5" s="26" t="n">
         <v>0.760954</v>
       </c>
-      <c r="CA5" s="27" t="n">
+      <c r="CA5" s="26" t="n">
         <v>0.567263</v>
       </c>
       <c r="CB5" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="CC5" s="28" t="n">
+      <c r="CC5" s="27" t="n">
         <v>0.2622875</v>
       </c>
-      <c r="CD5" s="29" t="n">
+      <c r="CD5" s="28" t="n">
         <v>0.703075</v>
       </c>
-      <c r="CE5" s="30" t="n">
+      <c r="CE5" s="29" t="n">
         <v>0.0391125</v>
       </c>
-      <c r="CF5" s="29" t="n">
+      <c r="CF5" s="28" t="n">
         <v>20.50125</v>
       </c>
-      <c r="CG5" s="30" t="n">
+      <c r="CG5" s="29" t="n">
         <v>52.675</v>
       </c>
-      <c r="CH5" s="30" t="n">
+      <c r="CH5" s="29" t="n">
         <v>5.7375</v>
       </c>
-      <c r="CI5" s="31" t="n">
+      <c r="CI5" s="30" t="n">
         <v>37.625</v>
       </c>
       <c r="CJ5" s="0" t="n">
@@ -57147,7 +57159,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B6" s="11" t="n">
         <v>3</v>
@@ -57227,8 +57239,8 @@
       <c r="AA6" s="0" t="n">
         <v>12.708327616797</v>
       </c>
-      <c r="AB6" s="12" t="s">
-        <v>402</v>
+      <c r="AB6" s="11" t="s">
+        <v>406</v>
       </c>
       <c r="AC6" s="0" t="n">
         <v>759.59480742</v>
@@ -57320,91 +57332,91 @@
       <c r="BF6" s="0" t="n">
         <v>-3.1011223999</v>
       </c>
-      <c r="BG6" s="13" t="n">
+      <c r="BG6" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="BH6" s="13" t="n">
+      <c r="BH6" s="12" t="n">
         <v>0.02</v>
       </c>
-      <c r="BI6" s="13" t="n">
+      <c r="BI6" s="12" t="n">
         <v>0.7</v>
       </c>
-      <c r="BJ6" s="13" t="n">
+      <c r="BJ6" s="12" t="n">
         <v>0.3</v>
       </c>
-      <c r="BK6" s="13" t="n">
+      <c r="BK6" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="BL6" s="13" t="n">
+      <c r="BL6" s="12" t="n">
         <v>2.6</v>
       </c>
-      <c r="BM6" s="13" t="n">
+      <c r="BM6" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="BN6" s="13" t="n">
+      <c r="BN6" s="12" t="n">
         <v>0.35</v>
       </c>
-      <c r="BO6" s="14" t="n">
+      <c r="BO6" s="13" t="n">
         <v>70</v>
       </c>
-      <c r="BP6" s="15" t="n">
+      <c r="BP6" s="14" t="n">
         <v>850</v>
       </c>
-      <c r="BQ6" s="16" t="n">
+      <c r="BQ6" s="15" t="n">
         <v>0.15</v>
       </c>
-      <c r="BR6" s="17" t="n">
+      <c r="BR6" s="16" t="n">
         <v>1.2</v>
       </c>
-      <c r="BS6" s="27" t="n">
+      <c r="BS6" s="26" t="n">
         <v>27.24382</v>
       </c>
-      <c r="BT6" s="27" t="n">
+      <c r="BT6" s="26" t="n">
         <v>29.08767</v>
       </c>
-      <c r="BU6" s="27" t="n">
+      <c r="BU6" s="26" t="n">
         <v>23.77501</v>
       </c>
-      <c r="BV6" s="27" t="n">
+      <c r="BV6" s="26" t="n">
         <v>13.2707</v>
       </c>
-      <c r="BW6" s="27" t="n">
+      <c r="BW6" s="26" t="n">
         <v>0.802764</v>
       </c>
-      <c r="BX6" s="27" t="n">
+      <c r="BX6" s="26" t="n">
         <v>4.778957</v>
       </c>
-      <c r="BY6" s="27" t="n">
+      <c r="BY6" s="26" t="n">
         <v>0.263407</v>
       </c>
-      <c r="BZ6" s="27" t="n">
+      <c r="BZ6" s="26" t="n">
         <v>0.760954</v>
       </c>
-      <c r="CA6" s="27" t="n">
+      <c r="CA6" s="26" t="n">
         <v>0.567263</v>
       </c>
       <c r="CB6" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="CC6" s="28" t="n">
+      <c r="CC6" s="27" t="n">
         <v>0.2622875</v>
       </c>
-      <c r="CD6" s="29" t="n">
+      <c r="CD6" s="28" t="n">
         <v>0.703075</v>
       </c>
-      <c r="CE6" s="30" t="n">
+      <c r="CE6" s="29" t="n">
         <v>0.0391125</v>
       </c>
-      <c r="CF6" s="29" t="n">
+      <c r="CF6" s="28" t="n">
         <v>20.50125</v>
       </c>
-      <c r="CG6" s="30" t="n">
+      <c r="CG6" s="29" t="n">
         <v>52.675</v>
       </c>
-      <c r="CH6" s="30" t="n">
+      <c r="CH6" s="29" t="n">
         <v>5.7375</v>
       </c>
-      <c r="CI6" s="31" t="n">
+      <c r="CI6" s="30" t="n">
         <v>37.625</v>
       </c>
       <c r="CJ6" s="0" t="n">
@@ -57440,7 +57452,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B7" s="11" t="n">
         <v>4</v>
@@ -57520,8 +57532,8 @@
       <c r="AA7" s="0" t="n">
         <v>12.6083396432963</v>
       </c>
-      <c r="AB7" s="12" t="s">
-        <v>404</v>
+      <c r="AB7" s="11" t="s">
+        <v>408</v>
       </c>
       <c r="AC7" s="0" t="n">
         <v>763.0032983459</v>
@@ -57613,91 +57625,91 @@
       <c r="BF7" s="0" t="n">
         <v>-3.1078902563</v>
       </c>
-      <c r="BG7" s="13" t="n">
+      <c r="BG7" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="BH7" s="13" t="n">
+      <c r="BH7" s="12" t="n">
         <v>0.02</v>
       </c>
-      <c r="BI7" s="13" t="n">
+      <c r="BI7" s="12" t="n">
         <v>0.7</v>
       </c>
-      <c r="BJ7" s="13" t="n">
+      <c r="BJ7" s="12" t="n">
         <v>0.3</v>
       </c>
-      <c r="BK7" s="13" t="n">
+      <c r="BK7" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="BL7" s="13" t="n">
+      <c r="BL7" s="12" t="n">
         <v>2.6</v>
       </c>
-      <c r="BM7" s="13" t="n">
+      <c r="BM7" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="BN7" s="13" t="n">
+      <c r="BN7" s="12" t="n">
         <v>0.35</v>
       </c>
-      <c r="BO7" s="14" t="n">
+      <c r="BO7" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="BP7" s="15" t="n">
+      <c r="BP7" s="14" t="n">
         <v>850</v>
       </c>
-      <c r="BQ7" s="16" t="n">
+      <c r="BQ7" s="15" t="n">
         <v>0.03</v>
       </c>
-      <c r="BR7" s="17" t="n">
+      <c r="BR7" s="16" t="n">
         <v>1.2</v>
       </c>
-      <c r="BS7" s="27" t="n">
+      <c r="BS7" s="26" t="n">
         <v>27.24382</v>
       </c>
-      <c r="BT7" s="27" t="n">
+      <c r="BT7" s="26" t="n">
         <v>29.08767</v>
       </c>
-      <c r="BU7" s="27" t="n">
+      <c r="BU7" s="26" t="n">
         <v>23.77501</v>
       </c>
-      <c r="BV7" s="27" t="n">
+      <c r="BV7" s="26" t="n">
         <v>13.2707</v>
       </c>
-      <c r="BW7" s="27" t="n">
+      <c r="BW7" s="26" t="n">
         <v>0.802764</v>
       </c>
-      <c r="BX7" s="27" t="n">
+      <c r="BX7" s="26" t="n">
         <v>4.778957</v>
       </c>
-      <c r="BY7" s="27" t="n">
+      <c r="BY7" s="26" t="n">
         <v>0.263407</v>
       </c>
-      <c r="BZ7" s="27" t="n">
+      <c r="BZ7" s="26" t="n">
         <v>0.760954</v>
       </c>
-      <c r="CA7" s="27" t="n">
+      <c r="CA7" s="26" t="n">
         <v>0.567263</v>
       </c>
       <c r="CB7" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="CC7" s="28" t="n">
+      <c r="CC7" s="27" t="n">
         <v>0.2622875</v>
       </c>
-      <c r="CD7" s="29" t="n">
+      <c r="CD7" s="28" t="n">
         <v>0.703075</v>
       </c>
-      <c r="CE7" s="30" t="n">
+      <c r="CE7" s="29" t="n">
         <v>0.0391125</v>
       </c>
-      <c r="CF7" s="29" t="n">
+      <c r="CF7" s="28" t="n">
         <v>20.50125</v>
       </c>
-      <c r="CG7" s="30" t="n">
+      <c r="CG7" s="29" t="n">
         <v>52.675</v>
       </c>
-      <c r="CH7" s="30" t="n">
+      <c r="CH7" s="29" t="n">
         <v>5.7375</v>
       </c>
-      <c r="CI7" s="31" t="n">
+      <c r="CI7" s="30" t="n">
         <v>37.625</v>
       </c>
       <c r="CJ7" s="0" t="n">
@@ -57733,7 +57745,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B8" s="11" t="n">
         <v>5</v>
@@ -57813,8 +57825,8 @@
       <c r="AA8" s="0" t="n">
         <v>10.1586630769944</v>
       </c>
-      <c r="AB8" s="12" t="s">
-        <v>406</v>
+      <c r="AB8" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="AC8" s="0" t="n">
         <v>761.921153397</v>
@@ -57906,91 +57918,91 @@
       <c r="BF8" s="0" t="n">
         <v>-3.105741563</v>
       </c>
-      <c r="BG8" s="13" t="n">
+      <c r="BG8" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="BH8" s="13" t="n">
+      <c r="BH8" s="12" t="n">
         <v>0.02</v>
       </c>
-      <c r="BI8" s="13" t="n">
+      <c r="BI8" s="12" t="n">
         <v>0.7</v>
       </c>
-      <c r="BJ8" s="13" t="n">
+      <c r="BJ8" s="12" t="n">
         <v>0.3</v>
       </c>
-      <c r="BK8" s="13" t="n">
+      <c r="BK8" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="BL8" s="13" t="n">
+      <c r="BL8" s="12" t="n">
         <v>2.6</v>
       </c>
-      <c r="BM8" s="13" t="n">
+      <c r="BM8" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="BN8" s="13" t="n">
+      <c r="BN8" s="12" t="n">
         <v>0.35</v>
       </c>
-      <c r="BO8" s="14" t="n">
+      <c r="BO8" s="13" t="n">
         <v>70</v>
       </c>
-      <c r="BP8" s="15" t="n">
+      <c r="BP8" s="14" t="n">
         <v>850</v>
       </c>
-      <c r="BQ8" s="16" t="n">
+      <c r="BQ8" s="15" t="n">
         <v>0.03</v>
       </c>
-      <c r="BR8" s="17" t="n">
+      <c r="BR8" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="BS8" s="27" t="n">
+      <c r="BS8" s="26" t="n">
         <v>27.24382</v>
       </c>
-      <c r="BT8" s="27" t="n">
+      <c r="BT8" s="26" t="n">
         <v>29.08767</v>
       </c>
-      <c r="BU8" s="27" t="n">
+      <c r="BU8" s="26" t="n">
         <v>23.77501</v>
       </c>
-      <c r="BV8" s="27" t="n">
+      <c r="BV8" s="26" t="n">
         <v>13.2707</v>
       </c>
-      <c r="BW8" s="27" t="n">
+      <c r="BW8" s="26" t="n">
         <v>0.802764</v>
       </c>
-      <c r="BX8" s="27" t="n">
+      <c r="BX8" s="26" t="n">
         <v>4.778957</v>
       </c>
-      <c r="BY8" s="27" t="n">
+      <c r="BY8" s="26" t="n">
         <v>0.263407</v>
       </c>
-      <c r="BZ8" s="27" t="n">
+      <c r="BZ8" s="26" t="n">
         <v>0.760954</v>
       </c>
-      <c r="CA8" s="27" t="n">
+      <c r="CA8" s="26" t="n">
         <v>0.567263</v>
       </c>
       <c r="CB8" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="CC8" s="28" t="n">
+      <c r="CC8" s="27" t="n">
         <v>0.2622875</v>
       </c>
-      <c r="CD8" s="29" t="n">
+      <c r="CD8" s="28" t="n">
         <v>0.703075</v>
       </c>
-      <c r="CE8" s="30" t="n">
+      <c r="CE8" s="29" t="n">
         <v>0.0391125</v>
       </c>
-      <c r="CF8" s="29" t="n">
+      <c r="CF8" s="28" t="n">
         <v>20.50125</v>
       </c>
-      <c r="CG8" s="30" t="n">
+      <c r="CG8" s="29" t="n">
         <v>52.675</v>
       </c>
-      <c r="CH8" s="30" t="n">
+      <c r="CH8" s="29" t="n">
         <v>5.7375</v>
       </c>
-      <c r="CI8" s="31" t="n">
+      <c r="CI8" s="30" t="n">
         <v>37.625</v>
       </c>
       <c r="CJ8" s="0" t="n">
@@ -58026,7 +58038,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B9" s="11" t="n">
         <v>6</v>
@@ -58106,8 +58118,8 @@
       <c r="AA9" s="0" t="n">
         <v>12.7368325841296</v>
       </c>
-      <c r="AB9" s="12" t="s">
-        <v>408</v>
+      <c r="AB9" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="AC9" s="0" t="n">
         <v>768.5242875283</v>
@@ -58199,92 +58211,92 @@
       <c r="BF9" s="0" t="n">
         <v>-2.8353206022</v>
       </c>
-      <c r="BG9" s="13" t="n">
+      <c r="BG9" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="BH9" s="13" t="n">
+      <c r="BH9" s="12" t="n">
         <v>0.02</v>
       </c>
-      <c r="BI9" s="13" t="n">
+      <c r="BI9" s="12" t="n">
         <v>0.7</v>
       </c>
-      <c r="BJ9" s="13" t="n">
+      <c r="BJ9" s="12" t="n">
         <v>0.3</v>
       </c>
-      <c r="BK9" s="13" t="n">
+      <c r="BK9" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="BL9" s="13" t="n">
+      <c r="BL9" s="12" t="n">
         <v>2.6</v>
       </c>
-      <c r="BM9" s="13" t="n">
+      <c r="BM9" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="BN9" s="13" t="n">
+      <c r="BN9" s="12" t="n">
         <v>0.35</v>
       </c>
-      <c r="BO9" s="14" t="n">
+      <c r="BO9" s="13" t="n">
         <v>70</v>
       </c>
-      <c r="BP9" s="15" t="n">
+      <c r="BP9" s="14" t="n">
         <v>850</v>
       </c>
-      <c r="BQ9" s="16" t="n">
+      <c r="BQ9" s="15" t="n">
         <v>0.03</v>
       </c>
-      <c r="BR9" s="17" t="n">
+      <c r="BR9" s="16" t="n">
         <v>1.2</v>
       </c>
-      <c r="BS9" s="27" t="n">
+      <c r="BS9" s="26" t="n">
         <v>27.24382</v>
       </c>
-      <c r="BT9" s="27" t="n">
+      <c r="BT9" s="26" t="n">
         <v>29.08767</v>
       </c>
-      <c r="BU9" s="27" t="n">
+      <c r="BU9" s="26" t="n">
         <v>23.77501</v>
       </c>
-      <c r="BV9" s="27" t="n">
+      <c r="BV9" s="26" t="n">
         <v>13.2707</v>
       </c>
-      <c r="BW9" s="27" t="n">
+      <c r="BW9" s="26" t="n">
         <v>0.802764</v>
       </c>
-      <c r="BX9" s="27" t="n">
+      <c r="BX9" s="26" t="n">
         <v>4.778957</v>
       </c>
-      <c r="BY9" s="27" t="n">
+      <c r="BY9" s="26" t="n">
         <v>0.263407</v>
       </c>
-      <c r="BZ9" s="27" t="n">
+      <c r="BZ9" s="26" t="n">
         <v>0.760954</v>
       </c>
-      <c r="CA9" s="27" t="n">
+      <c r="CA9" s="26" t="n">
         <f aca="false">0.567263*1.1</f>
         <v>0.6239893</v>
       </c>
       <c r="CB9" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="CC9" s="28" t="n">
+      <c r="CC9" s="27" t="n">
         <v>0.2622875</v>
       </c>
-      <c r="CD9" s="29" t="n">
+      <c r="CD9" s="28" t="n">
         <v>0.703075</v>
       </c>
-      <c r="CE9" s="30" t="n">
+      <c r="CE9" s="29" t="n">
         <v>0.0391125</v>
       </c>
-      <c r="CF9" s="29" t="n">
+      <c r="CF9" s="28" t="n">
         <v>20.50125</v>
       </c>
-      <c r="CG9" s="30" t="n">
+      <c r="CG9" s="29" t="n">
         <v>52.675</v>
       </c>
-      <c r="CH9" s="30" t="n">
+      <c r="CH9" s="29" t="n">
         <v>5.7375</v>
       </c>
-      <c r="CI9" s="31" t="n">
+      <c r="CI9" s="30" t="n">
         <v>37.625</v>
       </c>
       <c r="CJ9" s="0" t="n">
@@ -58321,7 +58333,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
